--- a/recognized_sets/recognized_command.xlsx
+++ b/recognized_sets/recognized_command.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>text</t>
   </si>
@@ -28,7 +28,25 @@
     <t>распознавать</t>
   </si>
   <si>
+    <t xml:space="preserve"> скажи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> говори</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> фпгфпгрфргп</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> максим гей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> как дела?</t>
+  </si>
+  <si>
     <t>Команда</t>
+  </si>
+  <si>
+    <t>Не команда</t>
   </si>
 </sst>
 </file>
@@ -386,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +426,153 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_command.xlsx
+++ b/recognized_sets/recognized_command.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>text</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve"> как дела?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> фас</t>
   </si>
   <si>
     <t>Команда</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -437,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -448,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -459,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -470,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -481,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -492,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -503,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -514,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -525,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -536,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -547,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -569,10 +572,54 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_command.xlsx
+++ b/recognized_sets/recognized_command.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Документы\GitHub\MisaTelegramBot\recognized_sets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>text</t>
   </si>
@@ -28,6 +33,9 @@
     <t>распознавать</t>
   </si>
   <si>
+    <t>Команда</t>
+  </si>
+  <si>
     <t xml:space="preserve"> скажи</t>
   </si>
   <si>
@@ -37,6 +45,9 @@
     <t xml:space="preserve"> фпгфпгрфргп</t>
   </si>
   <si>
+    <t>Не команда</t>
+  </si>
+  <si>
     <t xml:space="preserve"> максим гей?</t>
   </si>
   <si>
@@ -46,17 +57,14 @@
     <t xml:space="preserve"> фас</t>
   </si>
   <si>
-    <t>Команда</t>
-  </si>
-  <si>
-    <t>Не команда</t>
+    <t xml:space="preserve"> воу воу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,10 +75,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,6 +124,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,14 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,205 +439,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>